--- a/Datos/BRECHAS_ING/Brechas_Ingresos_Region_8.xlsx
+++ b/Datos/BRECHAS_ING/Brechas_Ingresos_Region_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\sfarias\Documents\Curso Python\.vscode\dashboard-indicadores\Datos\BRECHAS_ING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A3C687-1CF9-4D02-BA0E-B5AD49C2A8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D87F8F-F7BC-4BB2-8CDE-9644FE98D6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,10 +157,10 @@
     <t>Region de Biobío</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD70"/>
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>918137.4375</v>
@@ -614,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>831039.0625</v>
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>703321.0625</v>
@@ -672,7 +672,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>553062.25</v>
@@ -701,7 +701,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>864920.75</v>
@@ -730,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>744267.125</v>
@@ -759,7 +759,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>621862.125</v>
@@ -788,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>583813.9375</v>
@@ -817,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>633027.3125</v>
@@ -846,7 +846,7 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>530850.25</v>
@@ -875,7 +875,7 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12">
         <v>630273.125</v>
@@ -904,7 +904,7 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>463164.0625</v>
@@ -933,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14">
         <v>705124.9375</v>
@@ -962,7 +962,7 @@
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>599422.4375</v>
@@ -991,7 +991,7 @@
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16">
         <v>1000740.9375</v>
@@ -1020,7 +1020,7 @@
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17">
         <v>849066.8125</v>
@@ -1049,7 +1049,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18">
         <v>638465.125</v>
@@ -1078,7 +1078,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19">
         <v>570287.125</v>
@@ -1107,7 +1107,7 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20">
         <v>809484.0625</v>
@@ -1136,7 +1136,7 @@
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21">
         <v>647646.9375</v>
@@ -1165,7 +1165,7 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22">
         <v>693254.125</v>
@@ -1194,7 +1194,7 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23">
         <v>603424.0625</v>
@@ -1223,7 +1223,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24">
         <v>770554.9375</v>
@@ -1252,7 +1252,7 @@
         <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25">
         <v>648426</v>
@@ -1281,7 +1281,7 @@
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26">
         <v>578025.1875</v>
@@ -1310,7 +1310,7 @@
         <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27">
         <v>586268.125</v>
@@ -1339,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28">
         <v>776304.25</v>
@@ -1368,7 +1368,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29">
         <v>630524.875</v>
@@ -1397,7 +1397,7 @@
         <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30">
         <v>567138.75</v>
@@ -1426,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31">
         <v>566987.5625</v>
@@ -1455,7 +1455,7 @@
         <v>26</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32">
         <v>578024.5</v>
@@ -1484,7 +1484,7 @@
         <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33">
         <v>531919</v>
@@ -1513,7 +1513,7 @@
         <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34">
         <v>637355.8125</v>
@@ -1542,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35">
         <v>499987.125</v>
@@ -1571,7 +1571,7 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36">
         <v>597420</v>
@@ -1600,7 +1600,7 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37">
         <v>497161.1875</v>
@@ -1629,7 +1629,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38">
         <v>509192.3125</v>
@@ -1658,7 +1658,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39">
         <v>443972.03125</v>
@@ -1687,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40">
         <v>735825.625</v>
@@ -1716,7 +1716,7 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41">
         <v>657774</v>
@@ -1745,7 +1745,7 @@
         <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42">
         <v>815686.75</v>
@@ -1774,7 +1774,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43">
         <v>594076.6875</v>
@@ -1803,7 +1803,7 @@
         <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44">
         <v>676599.3125</v>
@@ -1832,7 +1832,7 @@
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45">
         <v>574691.8125</v>
@@ -1861,7 +1861,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>807303.5</v>
@@ -1890,7 +1890,7 @@
         <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <v>609324.0625</v>
@@ -1919,7 +1919,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48">
         <v>595631.625</v>
@@ -1948,7 +1948,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49">
         <v>539213.6875</v>
@@ -1977,7 +1977,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50">
         <v>736051.25</v>
@@ -2006,7 +2006,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51">
         <v>576888.25</v>
@@ -2035,7 +2035,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52">
         <v>626470.8125</v>
@@ -2064,7 +2064,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53">
         <v>556746.5</v>
@@ -2093,7 +2093,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54">
         <v>584640.8125</v>
@@ -2122,7 +2122,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>522842.84375</v>
@@ -2151,7 +2151,7 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56">
         <v>619265.625</v>
@@ -2180,7 +2180,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57">
         <v>500018.25</v>
@@ -2209,7 +2209,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58">
         <v>783638.0625</v>
@@ -2238,7 +2238,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59">
         <v>609218.125</v>
@@ -2267,7 +2267,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60">
         <v>618563.25</v>
@@ -2296,7 +2296,7 @@
         <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61">
         <v>557384.8125</v>
@@ -2325,7 +2325,7 @@
         <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62">
         <v>667761.375</v>
@@ -2354,7 +2354,7 @@
         <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63">
         <v>594751.125</v>
@@ -2383,7 +2383,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64">
         <v>630063.8125</v>
@@ -2412,7 +2412,7 @@
         <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65">
         <v>576874.8125</v>
@@ -2441,7 +2441,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66">
         <v>518156.0625</v>
@@ -2470,7 +2470,7 @@
         <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67">
         <v>502134.46875</v>
@@ -2490,7 +2490,7 @@
         <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68">
         <v>771321.0625</v>
@@ -2510,7 +2510,7 @@
         <v>44</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69">
         <v>666099.875</v>
@@ -2530,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70">
         <v>864177.4375</v>
@@ -2550,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>740526.3125</v>
